--- a/pages/2024-05-01-GLMM/data/tidy/dormouse.xlsx
+++ b/pages/2024-05-01-GLMM/data/tidy/dormouse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\git-harper-data-science\website\pages\2024-05-01-GLMM\data\tidy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB85A064-8470-4C5C-8167-CAB55F3C6536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4789BD-88C9-4B1B-AEE6-8F1A1D5C84E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{5AC47DCB-681D-40A3-94E6-FA1E8622DC6A}"/>
+    <workbookView xWindow="-23148" yWindow="1980" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{5AC47DCB-681D-40A3-94E6-FA1E8622DC6A}"/>
   </bookViews>
   <sheets>
     <sheet name="dormouse" sheetId="1" r:id="rId1"/>
@@ -781,9 +781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC363A7-42F3-434C-881A-3F46F8FBF079}">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,7 +797,7 @@
     <col min="7" max="7" width="11.77734375" customWidth="1"/>
     <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -8694,7 +8694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC5BF07-E737-458D-A27E-77183AD701B1}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
